--- a/ha/[최종] all2(교통량수정).xlsx
+++ b/ha/[최종] all2(교통량수정).xlsx
@@ -952,13 +952,16 @@
   <dimension ref="A1:AT271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V264" sqref="V264"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="17" max="17" width="28.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.25" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
